--- a/tests/robot_framework/files/inquiries/productierapport1.xlsx
+++ b/tests/robot_framework/files/inquiries/productierapport1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/inquiries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D405514-DC41-4241-9B1E-D497F9B36E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098FF51-CDD1-B74F-AAF7-7EB402D3C269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33700" yWindow="2700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>2024-02;2024-03</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -215,13 +218,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -250,11 +257,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}" name="Table1" displayName="Table1" ref="A1:N11" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}" name="Table1" displayName="Table1" ref="A1:N11" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:N11" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D381F962-FADF-AF4E-9906-CA75454FF40D}" name="ID" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{DB918FF0-F1DD-2344-8E9E-74A09F63C67E}" name="Matter" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{DB918FF0-F1DD-2344-8E9E-74A09F63C67E}" name="Matter" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{85E3AA19-FA4E-A447-9115-7DD58F8A437F}" name="Family" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{86F66076-ECA6-844C-971F-134932794ECF}" name="Email Thread ID" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{936D5F8E-C644-8345-8B7D-8E03C7D8526D}" name="Document" dataCellStyle="Normal"/>
@@ -559,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -629,8 +636,8 @@
       <c r="A2">
         <v>3001</v>
       </c>
-      <c r="B2">
-        <v>9</v>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -655,8 +662,8 @@
       <c r="A3">
         <v>3002</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D3">
         <v>232004</v>
@@ -684,8 +691,8 @@
       <c r="A4">
         <v>3003</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D4">
         <v>232005</v>
@@ -713,8 +720,8 @@
       <c r="A5">
         <v>3004</v>
       </c>
-      <c r="B5">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -739,8 +746,8 @@
       <c r="A6">
         <v>3005</v>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -759,8 +766,8 @@
       <c r="A7">
         <v>3006</v>
       </c>
-      <c r="B7">
-        <v>9</v>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -779,8 +786,8 @@
       <c r="A8">
         <v>3007</v>
       </c>
-      <c r="B8">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -805,8 +812,8 @@
       <c r="A9">
         <v>3008</v>
       </c>
-      <c r="B9">
-        <v>9</v>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -828,8 +835,8 @@
       <c r="A10">
         <v>3009</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -854,8 +861,8 @@
       <c r="A11">
         <v>3010</v>
       </c>
-      <c r="B11">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
